--- a/results/summary-means/mean_accel_season_habitat.xlsx
+++ b/results/summary-means/mean_accel_season_habitat.xlsx
@@ -1,80 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CU\Data\toronto-lmb-np-accel\results\summary-means\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187863B4-70FE-4362-B4C1-17A6A6B1D132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="16">
-  <si>
-    <t>common_name_e</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>habitat_type</t>
-  </si>
-  <si>
-    <t>accel</t>
-  </si>
-  <si>
-    <t>sem</t>
-  </si>
-  <si>
-    <t>Largemouth Bass</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>Deep/Low SAV</t>
-  </si>
-  <si>
-    <t>Exposed/Low SAV</t>
-  </si>
-  <si>
-    <t>Mod/Dense SAV</t>
-  </si>
-  <si>
-    <t>Shallow/Dense SAV</t>
-  </si>
-  <si>
-    <t>Shallow/Low SAV</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Northern Pike</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">common_name_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largemouth Bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposed/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shallow/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shallow/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Pike</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -110,15 +103,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -400,16 +384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -436,14 +418,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -453,14 +435,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -470,14 +452,14 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.82</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -487,14 +469,14 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -504,28 +486,29 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.35</v>
       </c>
-      <c r="E6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="C7"/>
+      <c r="D7" t="n">
         <v>0.34</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -535,14 +518,14 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.69</v>
       </c>
-      <c r="E8">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -552,14 +535,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.71</v>
       </c>
-      <c r="E9">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="n">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -569,14 +552,14 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.78</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.129</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -586,14 +569,14 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E11">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -603,28 +586,29 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>0.64</v>
       </c>
-      <c r="E12">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="C13"/>
+      <c r="D13" t="n">
         <v>0.76</v>
       </c>
-      <c r="E13">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -634,14 +618,14 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>0.7</v>
       </c>
-      <c r="E14">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -651,14 +635,14 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>0.8</v>
       </c>
-      <c r="E15">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -668,14 +652,14 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>0.83</v>
       </c>
-      <c r="E16">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -685,14 +669,14 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.65</v>
       </c>
-      <c r="E17">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -702,28 +686,29 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0.64</v>
       </c>
-      <c r="E18">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="C19"/>
+      <c r="D19" t="n">
         <v>0.72</v>
       </c>
-      <c r="E19">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -733,14 +718,14 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.24</v>
       </c>
-      <c r="E20">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -750,14 +735,14 @@
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0.17</v>
       </c>
-      <c r="E21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -767,28 +752,29 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0.18</v>
       </c>
-      <c r="E22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="D23">
+      <c r="C23"/>
+      <c r="D23" t="n">
         <v>0.31</v>
       </c>
-      <c r="E23">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="n">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -798,14 +784,14 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0.15</v>
       </c>
-      <c r="E24">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -815,14 +801,14 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>0.18</v>
       </c>
-      <c r="E25">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -832,14 +818,14 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>0.15</v>
       </c>
-      <c r="E26">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -849,14 +835,14 @@
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>0.18</v>
       </c>
-      <c r="E27">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -866,28 +852,29 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E28">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="D29">
+      <c r="C29"/>
+      <c r="D29" t="n">
         <v>0.16</v>
       </c>
-      <c r="E29">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -897,14 +884,14 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>0.18</v>
       </c>
-      <c r="E30">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -914,14 +901,14 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>0.21</v>
       </c>
-      <c r="E31">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -931,14 +918,14 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>0.19</v>
       </c>
-      <c r="E32">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -948,14 +935,14 @@
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>0.15</v>
       </c>
-      <c r="E33">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -965,28 +952,29 @@
       <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>0.22</v>
       </c>
-      <c r="E34">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="D35">
+      <c r="C35"/>
+      <c r="D35" t="n">
         <v>0.24</v>
       </c>
-      <c r="E35">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -996,14 +984,14 @@
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>0.19</v>
       </c>
-      <c r="E36">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1013,14 +1001,14 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>0.25</v>
       </c>
-      <c r="E37">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1030,14 +1018,14 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>0.19</v>
       </c>
-      <c r="E38">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1047,14 +1035,14 @@
       <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>0.17</v>
       </c>
-      <c r="E39">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1064,28 +1052,29 @@
       <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>0.19</v>
       </c>
-      <c r="E40">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="D41">
+      <c r="C41"/>
+      <c r="D41" t="n">
         <v>0.18</v>
       </c>
-      <c r="E41">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1095,14 +1084,14 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>0.12</v>
       </c>
-      <c r="E42">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1112,14 +1101,14 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>0.16</v>
       </c>
-      <c r="E43">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1129,14 +1118,14 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E44">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D44" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -1146,14 +1135,14 @@
       <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>0.25</v>
       </c>
-      <c r="E45">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -1163,29 +1152,30 @@
       <c r="C46" t="s">
         <v>11</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>0.1</v>
       </c>
-      <c r="E46">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>15</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="C47"/>
+      <c r="D47" t="n">
         <v>0.13</v>
       </c>
-      <c r="E47">
-        <v>3.0000000000000001E-3</v>
+      <c r="E47" t="n">
+        <v>0.003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/summary-means/mean_accel_season_habitat.xlsx
+++ b/results/summary-means/mean_accel_season_habitat.xlsx
@@ -50,13 +50,13 @@
     <t xml:space="preserve">Shallow/Low SAV</t>
   </si>
   <si>
+    <t xml:space="preserve">Winter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spring</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Pike</t>
@@ -498,14 +498,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7"/>
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="8">
@@ -516,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.69</v>
+        <v>0.17</v>
       </c>
       <c r="E8" t="n">
-        <v>0.051</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="9">
@@ -533,13 +535,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
       <c r="E9" t="n">
-        <v>0.056</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="10">
@@ -547,16 +549,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
       <c r="E10" t="n">
-        <v>0.129</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="11">
@@ -564,16 +566,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="E11" t="n">
-        <v>0.019</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +583,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="E12" t="n">
-        <v>0.033</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="13">
@@ -598,14 +600,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13"/>
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="E13" t="n">
-        <v>0.043</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +620,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="E14" t="n">
-        <v>0.012</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="15">
@@ -630,16 +634,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E15" t="n">
-        <v>0.057</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="16">
@@ -647,16 +651,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.044</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="17">
@@ -664,16 +668,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="E17" t="n">
-        <v>0.012</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="18">
@@ -681,16 +685,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="19">
@@ -698,80 +702,84 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19"/>
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E19" t="n">
-        <v>0.035</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23"/>
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
       <c r="D23" t="n">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="E23" t="n">
-        <v>0.142</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="24">
@@ -782,13 +790,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="25">
@@ -796,16 +804,16 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="E25" t="n">
-        <v>0.019</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="26">
@@ -813,16 +821,16 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="27">
@@ -830,16 +838,16 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.021</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="28">
@@ -847,16 +855,16 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="29">
@@ -864,14 +872,16 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29"/>
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
       <c r="D29" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="30">
@@ -879,7 +889,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -896,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -913,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -930,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -947,7 +957,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -964,14 +974,16 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35"/>
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
       <c r="D35" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="E35" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="36">
@@ -979,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="E36" t="n">
-        <v>0.004</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="37">
@@ -996,16 +1008,16 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="E37" t="n">
-        <v>0.025</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="38">
@@ -1013,13 +1025,13 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E38" t="n">
         <v>0.004</v>
@@ -1030,148 +1042,16 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E40" t="n">
         <v>0.002</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47"/>
-      <c r="D47" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.003</v>
       </c>
     </row>
   </sheetData>
